--- a/converter/data/xlsx/31.5.B_SMJENA.XLSX
+++ b/converter/data/xlsx/31.5.B_SMJENA.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="110">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Silvija Bago Seretin</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,9 +2299,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2376,9 +2376,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2544,9 +2541,6 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3274,6 +3268,39 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3295,34 +3322,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,10 +3854,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AF42" sqref="AF42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AE57" sqref="AE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3890,94 +3890,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="446" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="453"/>
-      <c r="C1" s="453"/>
-      <c r="D1" s="453"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="453"/>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="453"/>
-      <c r="K1" s="453"/>
-      <c r="L1" s="453"/>
-      <c r="M1" s="453"/>
-      <c r="N1" s="453"/>
-      <c r="O1" s="453"/>
-      <c r="P1" s="453"/>
-      <c r="Q1" s="453"/>
-      <c r="R1" s="453"/>
-      <c r="S1" s="453"/>
-      <c r="T1" s="453"/>
-      <c r="U1" s="453"/>
-      <c r="V1" s="453"/>
-      <c r="W1" s="453"/>
-      <c r="X1" s="453"/>
-      <c r="Y1" s="453"/>
-      <c r="Z1" s="453"/>
-      <c r="AA1" s="453"/>
-      <c r="AB1" s="453"/>
-      <c r="AC1" s="453"/>
-      <c r="AD1" s="453"/>
-      <c r="AE1" s="453"/>
-      <c r="AF1" s="453"/>
-      <c r="AG1" s="453"/>
-      <c r="AH1" s="453"/>
-      <c r="AI1" s="453"/>
-      <c r="AJ1" s="453"/>
+      <c r="B1" s="446"/>
+      <c r="C1" s="446"/>
+      <c r="D1" s="446"/>
+      <c r="E1" s="446"/>
+      <c r="F1" s="446"/>
+      <c r="G1" s="446"/>
+      <c r="H1" s="446"/>
+      <c r="I1" s="446"/>
+      <c r="J1" s="446"/>
+      <c r="K1" s="446"/>
+      <c r="L1" s="446"/>
+      <c r="M1" s="446"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="446"/>
+      <c r="P1" s="446"/>
+      <c r="Q1" s="446"/>
+      <c r="R1" s="446"/>
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
     </row>
     <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="454" t="s">
+      <c r="B2" s="447" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="457" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="449"/>
+      <c r="I2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="455"/>
-      <c r="M2" s="455"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="456"/>
-      <c r="P2" s="454" t="s">
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="449"/>
+      <c r="P2" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="455"/>
-      <c r="S2" s="455"/>
-      <c r="T2" s="455"/>
-      <c r="U2" s="455"/>
-      <c r="V2" s="456"/>
-      <c r="W2" s="457" t="s">
+      <c r="Q2" s="448"/>
+      <c r="R2" s="448"/>
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="448"/>
+      <c r="V2" s="449"/>
+      <c r="W2" s="450" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="455"/>
-      <c r="Y2" s="455"/>
-      <c r="Z2" s="455"/>
-      <c r="AA2" s="455"/>
-      <c r="AB2" s="455"/>
-      <c r="AC2" s="456"/>
-      <c r="AD2" s="458" t="s">
+      <c r="X2" s="448"/>
+      <c r="Y2" s="448"/>
+      <c r="Z2" s="448"/>
+      <c r="AA2" s="448"/>
+      <c r="AB2" s="448"/>
+      <c r="AC2" s="449"/>
+      <c r="AD2" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="459"/>
-      <c r="AF2" s="459"/>
-      <c r="AG2" s="459"/>
-      <c r="AH2" s="459"/>
-      <c r="AI2" s="459"/>
-      <c r="AJ2" s="460"/>
+      <c r="AE2" s="452"/>
+      <c r="AF2" s="452"/>
+      <c r="AG2" s="452"/>
+      <c r="AH2" s="452"/>
+      <c r="AI2" s="452"/>
+      <c r="AJ2" s="453"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4090,20 +4090,20 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="23"/>
@@ -4140,32 +4140,32 @@
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
-      <c r="AC4" s="112"/>
+      <c r="AC4" s="110"/>
       <c r="AD4" s="27"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="27"/>
-      <c r="AJ4" s="191"/>
+      <c r="AJ4" s="188"/>
     </row>
     <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="29"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -4190,7 +4190,7 @@
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
-      <c r="AC5" s="78"/>
+      <c r="AC5" s="77"/>
       <c r="AD5" s="32" t="s">
         <v>53</v>
       </c>
@@ -4213,21 +4213,21 @@
       <c r="A6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="70" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="24"/>
@@ -4266,7 +4266,7 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="238"/>
+      <c r="AC6" s="235"/>
       <c r="AD6" s="20"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
@@ -4276,16 +4276,16 @@
       <c r="AJ6" s="39"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="72"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="18"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -4307,7 +4307,7 @@
       <c r="W7" s="29"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="51"/>
+      <c r="Z7" s="50"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="22"/>
@@ -4329,13 +4329,13 @@
       <c r="A8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="285"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="72"/>
+      <c r="B8" s="282"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="18" t="s">
         <v>52</v>
       </c>
@@ -4390,25 +4390,25 @@
       <c r="AJ8" s="31"/>
     </row>
     <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="18"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="328" t="s">
+      <c r="N9" s="325" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="338" t="s">
+      <c r="O9" s="335" t="s">
         <v>53</v>
       </c>
       <c r="P9" s="18" t="s">
@@ -4418,10 +4418,10 @@
         <v>57</v>
       </c>
       <c r="R9" s="12"/>
-      <c r="S9" s="302" t="s">
+      <c r="S9" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="T9" s="302" t="s">
+      <c r="T9" s="299" t="s">
         <v>84</v>
       </c>
       <c r="U9" s="12"/>
@@ -4452,42 +4452,42 @@
       <c r="AJ9" s="31"/>
     </row>
     <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="239" t="s">
+      <c r="A10" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="441"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="440" t="s">
+      <c r="B10" s="333"/>
+      <c r="C10" s="438"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="437" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="301" t="s">
+      <c r="K10" s="298" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="301" t="s">
+      <c r="L10" s="298" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="314" t="s">
+      <c r="M10" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="76"/>
+      <c r="N10" s="75"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="303" t="s">
+      <c r="P10" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="302" t="s">
+      <c r="Q10" s="299" t="s">
         <v>69</v>
       </c>
       <c r="R10" s="36"/>
-      <c r="S10" s="327"/>
-      <c r="T10" s="327"/>
+      <c r="S10" s="324"/>
+      <c r="T10" s="324"/>
       <c r="U10" s="36"/>
       <c r="V10" s="42"/>
       <c r="W10" s="43"/>
@@ -4497,55 +4497,55 @@
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
       <c r="AC10" s="42"/>
-      <c r="AD10" s="303" t="s">
+      <c r="AD10" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="AE10" s="302" t="s">
+      <c r="AE10" s="299" t="s">
         <v>69</v>
       </c>
-      <c r="AF10" s="302" t="s">
+      <c r="AF10" s="299" t="s">
         <v>70</v>
       </c>
-      <c r="AG10" s="302" t="s">
+      <c r="AG10" s="299" t="s">
         <v>70</v>
       </c>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="302" t="s">
+      <c r="AI10" s="299" t="s">
         <v>66</v>
       </c>
       <c r="AJ10" s="25"/>
     </row>
     <row r="11" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="443" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="440" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="443" t="s">
+      <c r="E11" s="440" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="N11" s="20"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="156"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="153"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="38"/>
-      <c r="W11" s="423"/>
-      <c r="X11" s="156"/>
+      <c r="W11" s="420"/>
+      <c r="X11" s="153"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
@@ -4560,22 +4560,22 @@
       <c r="AJ11" s="39"/>
     </row>
     <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="241" t="s">
+      <c r="A12" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="298"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="294"/>
+      <c r="J12" s="295"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -4596,32 +4596,32 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="353"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="350"/>
       <c r="AD12" s="18" t="s">
         <v>66</v>
       </c>
       <c r="AE12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="31"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241" t="s">
+      <c r="A13" s="238" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="18" t="s">
         <v>53</v>
       </c>
@@ -4656,22 +4656,22 @@
       <c r="AJ13" s="31"/>
     </row>
     <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="241" t="s">
+      <c r="A14" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="304" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="301" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="305" t="s">
+      <c r="E14" s="302" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="442" t="s">
+      <c r="G14" s="73"/>
+      <c r="H14" s="439" t="s">
         <v>84</v>
       </c>
       <c r="I14" s="18"/>
@@ -4681,17 +4681,17 @@
       <c r="M14" s="30"/>
       <c r="N14" s="12"/>
       <c r="O14" s="42"/>
-      <c r="P14" s="307" t="s">
+      <c r="P14" s="304" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="12"/>
-      <c r="R14" s="306" t="s">
+      <c r="R14" s="303" t="s">
         <v>84</v>
       </c>
-      <c r="S14" s="306" t="s">
+      <c r="S14" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="T14" s="306" t="s">
+      <c r="T14" s="303" t="s">
         <v>69</v>
       </c>
       <c r="U14" s="12"/>
@@ -4703,32 +4703,32 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="76"/>
+      <c r="AD14" s="75"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="31"/>
-      <c r="AK14" s="99"/>
+      <c r="AK14" s="97"/>
     </row>
     <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="242" t="s">
+      <c r="A15" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67" t="s">
         <v>84</v>
       </c>
       <c r="I15" s="18"/>
@@ -4738,7 +4738,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="76" t="s">
+      <c r="P15" s="75" t="s">
         <v>64</v>
       </c>
       <c r="Q15" s="12"/>
@@ -4771,19 +4771,19 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="31"/>
-      <c r="AK15" s="99"/>
+      <c r="AK15" s="97"/>
     </row>
     <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="340"/>
-      <c r="H16" s="341"/>
+      <c r="B16" s="336"/>
+      <c r="C16" s="337"/>
+      <c r="D16" s="337"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="338"/>
       <c r="I16" s="18"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -4791,7 +4791,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="75" t="s">
         <v>66</v>
       </c>
       <c r="Q16" s="12"/>
@@ -4813,30 +4813,30 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="343"/>
-      <c r="AE16" s="343"/>
-      <c r="AF16" s="342"/>
-      <c r="AG16" s="342"/>
-      <c r="AH16" s="342"/>
-      <c r="AI16" s="342"/>
+      <c r="AD16" s="340"/>
+      <c r="AE16" s="340"/>
+      <c r="AF16" s="339"/>
+      <c r="AG16" s="339"/>
+      <c r="AH16" s="339"/>
+      <c r="AI16" s="339"/>
       <c r="AJ16" s="31"/>
-      <c r="AK16" s="99"/>
+      <c r="AK16" s="97"/>
     </row>
     <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="242" t="s">
+      <c r="A17" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="308" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="305" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="67" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="18"/>
@@ -4854,19 +4854,19 @@
       <c r="O17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="76"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="345" t="s">
+      <c r="U17" s="342" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="344" t="s">
+      <c r="V17" s="341" t="s">
         <v>70</v>
       </c>
       <c r="W17" s="29"/>
-      <c r="X17" s="76"/>
+      <c r="X17" s="75"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -4889,46 +4889,46 @@
       </c>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="31"/>
-      <c r="AK17" s="99"/>
+      <c r="AK17" s="97"/>
     </row>
     <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="98"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="96"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
-      <c r="M18" s="311" t="s">
+      <c r="M18" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="311" t="s">
+      <c r="N18" s="308" t="s">
         <v>66</v>
       </c>
       <c r="O18" s="26"/>
-      <c r="P18" s="316"/>
-      <c r="Q18" s="317"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
+      <c r="P18" s="313"/>
+      <c r="Q18" s="314"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
       <c r="U18" s="30"/>
       <c r="V18" s="26"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="76"/>
+      <c r="X18" s="75"/>
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
       <c r="AC18" s="26"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76">
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75">
         <v>54</v>
       </c>
       <c r="AF18" s="30"/>
@@ -4936,23 +4936,23 @@
       <c r="AH18" s="30"/>
       <c r="AI18" s="30"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="99"/>
+      <c r="AK18" s="97"/>
     </row>
     <row r="19" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="20" t="s">
         <v>67</v>
       </c>
@@ -4981,24 +4981,26 @@
       <c r="AD19" s="20"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+      <c r="AG19" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="AH19" s="21"/>
       <c r="AI19" s="21"/>
       <c r="AJ19" s="39"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
     </row>
     <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="236" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="11"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -5027,28 +5029,28 @@
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="25"/>
-      <c r="AM20" s="99"/>
+      <c r="AM20" s="97"/>
     </row>
     <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="239" t="s">
+      <c r="A21" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="439" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="436" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="439" t="s">
+      <c r="L21" s="436" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="209"/>
+      <c r="M21" s="206"/>
       <c r="N21" s="36"/>
       <c r="O21" s="42"/>
       <c r="P21" s="11"/>
@@ -5058,8 +5060,8 @@
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="42"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="209"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="206"/>
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
       <c r="AA21" s="36"/>
@@ -5077,19 +5079,19 @@
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="74" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="11"/>
@@ -5152,23 +5154,23 @@
         <v>68</v>
       </c>
       <c r="AJ22" s="25"/>
-      <c r="AL22" s="99"/>
+      <c r="AL22" s="97"/>
     </row>
     <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239" t="s">
+      <c r="A23" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="11"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -5178,9 +5180,9 @@
       <c r="O23" s="42"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
       <c r="U23" s="36"/>
       <c r="V23" s="42"/>
       <c r="W23" s="43"/>
@@ -5190,26 +5192,26 @@
       <c r="AA23" s="36"/>
       <c r="AB23" s="36"/>
       <c r="AC23" s="42"/>
-      <c r="AD23" s="143"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="98"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="96"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
       <c r="AJ23" s="25"/>
-      <c r="AL23" s="99"/>
+      <c r="AL23" s="97"/>
     </row>
     <row r="24" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -5240,96 +5242,96 @@
       <c r="AB24" s="21"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="20"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="208" t="s">
+      <c r="AE24" s="208"/>
+      <c r="AF24" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="AG24" s="208" t="s">
+      <c r="AG24" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="AH24" s="208" t="s">
+      <c r="AH24" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="AI24" s="208" t="s">
+      <c r="AI24" s="205" t="s">
         <v>53</v>
       </c>
       <c r="AJ24" s="39"/>
     </row>
     <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="309" t="s">
+      <c r="B25" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="310" t="s">
+      <c r="C25" s="307" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="252"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="270"/>
-      <c r="L25" s="290"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="275" t="s">
+      <c r="D25" s="249"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="272" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="291" t="s">
+      <c r="O25" s="288" t="s">
         <v>84</v>
       </c>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="51"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="50"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105" t="s">
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" s="105" t="s">
+      <c r="AI25" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="AJ25" s="253"/>
-      <c r="AK25" s="200"/>
-      <c r="AL25" s="200"/>
+      <c r="AJ25" s="250"/>
+      <c r="AK25" s="197"/>
+      <c r="AL25" s="197"/>
     </row>
     <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="334" t="s">
+      <c r="B26" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="214" t="s">
+      <c r="C26" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="214" t="s">
+      <c r="D26" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="214" t="s">
+      <c r="E26" s="211" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="126"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="124"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="235"/>
+      <c r="J26" s="232"/>
       <c r="K26" s="12"/>
       <c r="L26" s="18"/>
       <c r="M26" s="12"/>
@@ -5337,49 +5339,49 @@
       <c r="O26" s="22"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
       <c r="T26" s="12"/>
       <c r="U26" s="18"/>
       <c r="V26" s="22"/>
-      <c r="W26" s="128"/>
+      <c r="W26" s="126"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="424"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="421"/>
       <c r="AD26" s="18"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="330"/>
+      <c r="AG26" s="327"/>
       <c r="AH26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AI26" s="329" t="s">
+      <c r="AI26" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="AJ26" s="437"/>
-      <c r="AK26" s="201"/>
-      <c r="AL26" s="202"/>
+      <c r="AJ26" s="434"/>
+      <c r="AK26" s="198"/>
+      <c r="AL26" s="199"/>
     </row>
     <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="284" t="s">
+      <c r="B27" s="281" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="217" t="s">
+      <c r="C27" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="126"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="124"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="235"/>
+      <c r="J27" s="232"/>
       <c r="K27" s="12"/>
       <c r="L27" s="18"/>
       <c r="M27" s="12"/>
@@ -5387,14 +5389,14 @@
       <c r="O27" s="22"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
       <c r="T27" s="12"/>
       <c r="U27" s="18"/>
       <c r="V27" s="22"/>
-      <c r="W27" s="176"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="18"/>
       <c r="AB27" s="12"/>
@@ -5402,161 +5404,161 @@
       <c r="AD27" s="18"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="45"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
       <c r="AI27" s="12"/>
-      <c r="AJ27" s="129"/>
-      <c r="AK27" s="202"/>
-      <c r="AL27" s="203"/>
+      <c r="AJ27" s="127"/>
+      <c r="AK27" s="199"/>
+      <c r="AL27" s="200"/>
     </row>
     <row r="28" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="121" t="s">
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="185" t="s">
+      <c r="J28" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="101" t="s">
+      <c r="K28" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="101" t="s">
+      <c r="L28" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="101" t="s">
+      <c r="M28" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="101" t="s">
+      <c r="N28" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="120" t="s">
+      <c r="O28" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119" t="s">
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="101" t="s">
+      <c r="R28" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="123"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="123"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="142" t="s">
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="140" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="241" t="s">
+      <c r="A29" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="139"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="137"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="276" t="s">
+      <c r="N29" s="169"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q29" s="277" t="s">
+      <c r="Q29" s="274" t="s">
         <v>70</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="259"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="219"/>
+      <c r="V29" s="256"/>
       <c r="W29" s="29"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="353"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="350"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="109"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="31"/>
-      <c r="AK29" s="135" t="s">
+      <c r="AK29" s="133" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="220"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="67" t="s">
+      <c r="B30" s="217"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="278" t="s">
+      <c r="F30" s="66"/>
+      <c r="G30" s="275" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="268"/>
-      <c r="I30" s="76"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="75"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="225" t="s">
+      <c r="P30" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="225" t="s">
+      <c r="Q30" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="225" t="s">
+      <c r="R30" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="S30" s="225" t="s">
+      <c r="S30" s="222" t="s">
         <v>52</v>
       </c>
       <c r="T30" s="30"/>
@@ -5568,33 +5570,33 @@
       </c>
       <c r="W30" s="40"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="98"/>
+      <c r="Y30" s="96"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
       <c r="AC30" s="26"/>
-      <c r="AD30" s="76"/>
+      <c r="AD30" s="75"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="41"/>
-      <c r="AK30" s="136" t="s">
+      <c r="AK30" s="134" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="239" t="s">
+      <c r="A31" s="236" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="11"/>
       <c r="J31" s="36" t="s">
         <v>53</v>
@@ -5611,15 +5613,15 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
-      <c r="U31" s="140"/>
-      <c r="V31" s="141"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="139"/>
       <c r="W31" s="43"/>
       <c r="X31" s="36"/>
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
-      <c r="AB31" s="209"/>
-      <c r="AC31" s="159"/>
+      <c r="AB31" s="206"/>
+      <c r="AC31" s="156"/>
       <c r="AD31" s="11" t="s">
         <v>84</v>
       </c>
@@ -5629,25 +5631,25 @@
       <c r="AF31" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="AG31" s="144"/>
+      <c r="AG31" s="142"/>
       <c r="AH31" s="11"/>
       <c r="AI31" s="30"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="137"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="135"/>
     </row>
     <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="239" t="s">
+      <c r="A32" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="261"/>
-      <c r="C32" s="257"/>
-      <c r="D32" s="257"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67" t="s">
+      <c r="B32" s="258"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="67" t="s">
         <v>52</v>
       </c>
       <c r="I32" s="11"/>
@@ -5657,16 +5659,16 @@
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="204" t="s">
+      <c r="P32" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="Q32" s="186" t="s">
+      <c r="Q32" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="R32" s="186" t="s">
+      <c r="R32" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="S32" s="186" t="s">
+      <c r="S32" s="183" t="s">
         <v>52</v>
       </c>
       <c r="T32" s="36"/>
@@ -5675,18 +5677,18 @@
       <c r="W32" s="43"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
-      <c r="Z32" s="425"/>
-      <c r="AA32" s="425"/>
-      <c r="AB32" s="425"/>
-      <c r="AC32" s="426"/>
+      <c r="Z32" s="422"/>
+      <c r="AA32" s="422"/>
+      <c r="AB32" s="422"/>
+      <c r="AC32" s="423"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="36"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="36"/>
-      <c r="AH32" s="190"/>
+      <c r="AH32" s="187"/>
       <c r="AI32" s="30"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="158" t="s">
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="155" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5694,214 +5696,214 @@
       <c r="A33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="228" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="283" t="s">
+      <c r="H33" s="280" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="221"/>
-      <c r="J33" s="157"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="159"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="156"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
       <c r="U33" s="36"/>
       <c r="V33" s="42"/>
       <c r="W33" s="43"/>
       <c r="X33" s="36"/>
       <c r="Y33" s="36"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="159"/>
+      <c r="Z33" s="142"/>
+      <c r="AA33" s="142"/>
+      <c r="AB33" s="142"/>
+      <c r="AC33" s="156"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="36"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="36"/>
-      <c r="AH33" s="282" t="s">
+      <c r="AH33" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="AI33" s="282" t="s">
+      <c r="AI33" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="AJ33" s="288"/>
-      <c r="AK33" s="135" t="s">
+      <c r="AJ33" s="285"/>
+      <c r="AK33" s="133" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="239" t="s">
+      <c r="A34" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="402" t="s">
+      <c r="B34" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="403" t="s">
+      <c r="C34" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="403" t="s">
+      <c r="D34" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="403" t="s">
+      <c r="E34" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="403" t="s">
+      <c r="F34" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="403" t="s">
+      <c r="G34" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="333"/>
-      <c r="I34" s="404" t="s">
+      <c r="H34" s="330"/>
+      <c r="I34" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="405" t="s">
+      <c r="J34" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="406" t="s">
+      <c r="K34" s="403" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="407" t="s">
+      <c r="L34" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="M34" s="408" t="s">
+      <c r="M34" s="405" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="408" t="s">
+      <c r="N34" s="405" t="s">
         <v>84</v>
       </c>
-      <c r="O34" s="409" t="s">
+      <c r="O34" s="406" t="s">
         <v>84</v>
       </c>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="140"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="133"/>
-      <c r="W34" s="271"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="161"/>
-      <c r="Z34" s="177"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="177"/>
-      <c r="AC34" s="427"/>
-      <c r="AD34" s="143"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="268"/>
+      <c r="X34" s="157"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="174"/>
+      <c r="AA34" s="174"/>
+      <c r="AB34" s="174"/>
+      <c r="AC34" s="424"/>
+      <c r="AD34" s="141"/>
       <c r="AE34" s="36"/>
       <c r="AF34" s="36"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="462" t="s">
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="443" t="s">
         <v>70</v>
       </c>
-      <c r="AI34" s="462" t="s">
+      <c r="AI34" s="443" t="s">
         <v>70</v>
       </c>
-      <c r="AJ34" s="288"/>
-      <c r="AK34" s="137" t="s">
+      <c r="AJ34" s="285"/>
+      <c r="AK34" s="135" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="239" t="s">
+      <c r="A35" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="335" t="s">
+      <c r="B35" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="279" t="s">
+      <c r="C35" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="280" t="s">
+      <c r="E35" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="279" t="s">
+      <c r="F35" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="279" t="s">
+      <c r="G35" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="292"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="229" t="s">
+      <c r="H35" s="289"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="281" t="s">
+      <c r="L35" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="M35" s="229" t="s">
+      <c r="M35" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="159"/>
-      <c r="P35" s="320" t="s">
+      <c r="N35" s="108"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="317" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="321" t="s">
+      <c r="Q35" s="318" t="s">
         <v>70</v>
       </c>
       <c r="R35" s="30"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="219"/>
-      <c r="V35" s="177"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="216"/>
+      <c r="V35" s="174"/>
       <c r="W35" s="40"/>
       <c r="X35" s="30"/>
-      <c r="Y35" s="76"/>
+      <c r="Y35" s="75"/>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="143"/>
-      <c r="AB35" s="177"/>
-      <c r="AC35" s="178"/>
-      <c r="AD35" s="205" t="s">
+      <c r="AA35" s="141"/>
+      <c r="AB35" s="174"/>
+      <c r="AC35" s="175"/>
+      <c r="AD35" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="AE35" s="187" t="s">
+      <c r="AE35" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="AF35" s="206" t="s">
+      <c r="AF35" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="AG35" s="199" t="s">
+      <c r="AG35" s="196" t="s">
         <v>52</v>
       </c>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="144" t="s">
+      <c r="AI35" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="AJ35" s="165"/>
-      <c r="AK35" s="136" t="s">
+      <c r="AJ35" s="162"/>
+      <c r="AK35" s="134" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="240" t="s">
+      <c r="A36" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="432"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="258" t="s">
+      <c r="B36" s="429"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="269" t="s">
+      <c r="H36" s="266" t="s">
         <v>70</v>
       </c>
       <c r="I36" s="20"/>
@@ -5911,56 +5913,56 @@
       <c r="M36" s="21"/>
       <c r="N36" s="20"/>
       <c r="O36" s="38"/>
-      <c r="P36" s="260" t="s">
+      <c r="P36" s="257" t="s">
         <v>70</v>
       </c>
-      <c r="Q36" s="103" t="s">
+      <c r="Q36" s="101" t="s">
         <v>70</v>
       </c>
       <c r="R36" s="21"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="260"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="257"/>
       <c r="W36" s="20"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
-      <c r="AA36" s="170"/>
-      <c r="AB36" s="170"/>
+      <c r="AA36" s="167"/>
+      <c r="AB36" s="167"/>
       <c r="AC36" s="38"/>
-      <c r="AD36" s="226" t="s">
+      <c r="AD36" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="AE36" s="227" t="s">
+      <c r="AE36" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="AF36" s="226" t="s">
+      <c r="AF36" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="AG36" s="226" t="s">
+      <c r="AG36" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="AH36" s="230" t="s">
+      <c r="AH36" s="227" t="s">
         <v>70</v>
       </c>
-      <c r="AI36" s="230" t="s">
+      <c r="AI36" s="227" t="s">
         <v>70</v>
       </c>
-      <c r="AJ36" s="289"/>
-      <c r="AK36" s="136"/>
+      <c r="AJ36" s="286"/>
+      <c r="AK36" s="134"/>
     </row>
     <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="262" t="s">
+      <c r="A37" s="259" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="72"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="32"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
@@ -5978,7 +5980,7 @@
       <c r="W37" s="29"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
-      <c r="Z37" s="51"/>
+      <c r="Z37" s="50"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="22"/>
@@ -5991,16 +5993,16 @@
       <c r="AJ37" s="37"/>
     </row>
     <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="239" t="s">
+      <c r="A38" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="72"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="11"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -6011,7 +6013,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
-      <c r="S38" s="140"/>
+      <c r="S38" s="138"/>
       <c r="T38" s="11" t="s">
         <v>53</v>
       </c>
@@ -6026,33 +6028,33 @@
       <c r="AA38" s="30"/>
       <c r="AB38" s="30"/>
       <c r="AC38" s="26"/>
-      <c r="AD38" s="161"/>
+      <c r="AD38" s="158"/>
       <c r="AE38" s="11"/>
-      <c r="AF38" s="243" t="s">
+      <c r="AF38" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="AG38" s="243" t="s">
+      <c r="AG38" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="AH38" s="243" t="s">
+      <c r="AH38" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="AI38" s="207" t="s">
+      <c r="AI38" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AJ38" s="49"/>
+      <c r="AJ38" s="48"/>
     </row>
     <row r="39" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="435"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="251"/>
-      <c r="F39" s="251"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="72"/>
+      <c r="B39" s="432"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="11"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -6070,7 +6072,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="32"/>
-      <c r="V39" s="436"/>
+      <c r="V39" s="433"/>
       <c r="W39" s="35"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="12"/>
@@ -6084,23 +6086,23 @@
       <c r="AG39" s="11"/>
       <c r="AH39" s="11"/>
       <c r="AI39" s="36"/>
-      <c r="AJ39" s="49"/>
+      <c r="AJ39" s="48"/>
     </row>
     <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="239" t="s">
+      <c r="A40" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="312" t="s">
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="309" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="313" t="s">
+      <c r="J40" s="310" t="s">
         <v>84</v>
       </c>
       <c r="K40" s="36"/>
@@ -6115,36 +6117,36 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="44"/>
-      <c r="W40" s="428"/>
-      <c r="X40" s="140"/>
-      <c r="Y40" s="429"/>
-      <c r="Z40" s="430"/>
+      <c r="W40" s="425"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="426"/>
+      <c r="Z40" s="427"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="36"/>
       <c r="AC40" s="42"/>
-      <c r="AD40" s="113"/>
+      <c r="AD40" s="111"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="11"/>
       <c r="AH40" s="11"/>
       <c r="AI40" s="36"/>
-      <c r="AJ40" s="49"/>
+      <c r="AJ40" s="48"/>
     </row>
     <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="239" t="s">
+      <c r="A41" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="293" t="s">
+      <c r="B41" s="290" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="294" t="s">
+      <c r="C41" s="291" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="78"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="11"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -6159,9 +6161,9 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="44"/>
-      <c r="W41" s="431"/>
-      <c r="X41" s="144"/>
-      <c r="Y41" s="130"/>
+      <c r="W41" s="428"/>
+      <c r="X41" s="142"/>
+      <c r="Y41" s="128"/>
       <c r="Z41" s="36"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="36"/>
@@ -6172,114 +6174,114 @@
       <c r="AG41" s="11"/>
       <c r="AH41" s="11"/>
       <c r="AI41" s="36"/>
-      <c r="AJ41" s="49"/>
+      <c r="AJ41" s="48"/>
     </row>
     <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="240" t="s">
+      <c r="A42" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="213"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="210"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="156"/>
-      <c r="V42" s="189"/>
-      <c r="W42" s="101"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="153"/>
+      <c r="U42" s="153"/>
+      <c r="V42" s="186"/>
+      <c r="W42" s="99"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
-      <c r="AA42" s="170"/>
+      <c r="AA42" s="167"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="38"/>
-      <c r="AD42" s="179"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="103"/>
+      <c r="AD42" s="176"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="101"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="21"/>
       <c r="AI42" s="21"/>
-      <c r="AJ42" s="166"/>
+      <c r="AJ42" s="163"/>
     </row>
     <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="242" t="s">
+      <c r="A43" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="237"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67" t="s">
+      <c r="B43" s="234"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="75"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
       <c r="N43" s="30"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="316"/>
-      <c r="Q43" s="420"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="98" t="s">
+      <c r="P43" s="313"/>
+      <c r="Q43" s="417"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="T43" s="317" t="s">
+      <c r="T43" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="U43" s="98" t="s">
+      <c r="U43" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="337"/>
+      <c r="V43" s="334"/>
       <c r="W43" s="40"/>
       <c r="X43" s="30"/>
-      <c r="Y43" s="98"/>
+      <c r="Y43" s="96"/>
       <c r="Z43" s="30"/>
       <c r="AA43" s="30"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="26"/>
-      <c r="AD43" s="371" t="s">
+      <c r="AD43" s="368" t="s">
         <v>71</v>
       </c>
-      <c r="AE43" s="157" t="s">
+      <c r="AE43" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="AF43" s="157" t="s">
+      <c r="AF43" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="AG43" s="317"/>
-      <c r="AH43" s="317"/>
+      <c r="AG43" s="314"/>
+      <c r="AH43" s="314"/>
       <c r="AI43" s="30"/>
       <c r="AJ43" s="41"/>
-      <c r="AK43" s="94"/>
+      <c r="AK43" s="92"/>
     </row>
     <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="239" t="s">
+      <c r="A44" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="11"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -6294,9 +6296,9 @@
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
       <c r="V44" s="42"/>
-      <c r="W44" s="271"/>
-      <c r="X44" s="160"/>
-      <c r="Y44" s="160"/>
+      <c r="W44" s="268"/>
+      <c r="X44" s="157"/>
+      <c r="Y44" s="157"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
       <c r="AB44" s="36"/>
@@ -6308,27 +6310,27 @@
       <c r="AH44" s="30"/>
       <c r="AI44" s="30"/>
       <c r="AJ44" s="41"/>
-      <c r="AK44" s="94"/>
+      <c r="AK44" s="92"/>
     </row>
     <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="239" t="s">
+      <c r="A45" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="346" t="s">
+      <c r="B45" s="343" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="347" t="s">
+      <c r="C45" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="347" t="s">
+      <c r="D45" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="347" t="s">
+      <c r="E45" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
       <c r="I45" s="11"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -6337,9 +6339,9 @@
       <c r="N45" s="36"/>
       <c r="O45" s="42"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="418"/>
-      <c r="R45" s="327"/>
-      <c r="S45" s="327"/>
+      <c r="Q45" s="415"/>
+      <c r="R45" s="324"/>
+      <c r="S45" s="324"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
       <c r="V45" s="42"/>
@@ -6350,38 +6352,38 @@
       <c r="AA45" s="36"/>
       <c r="AB45" s="36"/>
       <c r="AC45" s="42"/>
-      <c r="AD45" s="143"/>
-      <c r="AE45" s="144"/>
-      <c r="AF45" s="144"/>
+      <c r="AD45" s="141"/>
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="142"/>
       <c r="AG45" s="36"/>
       <c r="AH45" s="30"/>
       <c r="AI45" s="30"/>
       <c r="AJ45" s="41"/>
-      <c r="AK45" s="94"/>
+      <c r="AK45" s="92"/>
     </row>
     <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="239" t="s">
+      <c r="A46" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E46" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="74" t="s">
+      <c r="G46" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="444" t="s">
+      <c r="H46" s="441" t="s">
         <v>67</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -6402,12 +6404,12 @@
       <c r="N46" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O46" s="427" t="s">
+      <c r="O46" s="424" t="s">
         <v>67</v>
       </c>
       <c r="P46" s="11"/>
-      <c r="Q46" s="419"/>
-      <c r="R46" s="327"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="324"/>
       <c r="S46" s="36" t="s">
         <v>66</v>
       </c>
@@ -6422,18 +6424,18 @@
       </c>
       <c r="W46" s="43"/>
       <c r="X46" s="36"/>
-      <c r="Y46" s="82"/>
+      <c r="Y46" s="80"/>
       <c r="Z46" s="36"/>
       <c r="AA46" s="36"/>
       <c r="AB46" s="36"/>
       <c r="AC46" s="42"/>
-      <c r="AD46" s="177" t="s">
+      <c r="AD46" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AE46" s="140" t="s">
+      <c r="AE46" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="AF46" s="140" t="s">
+      <c r="AF46" s="138" t="s">
         <v>67</v>
       </c>
       <c r="AG46" s="36" t="s">
@@ -6442,17 +6444,17 @@
       <c r="AH46" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="AI46" s="445" t="s">
+      <c r="AI46" s="442" t="s">
         <v>108</v>
       </c>
       <c r="AJ46" s="37"/>
-      <c r="AK46" s="94"/>
+      <c r="AK46" s="92"/>
     </row>
     <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="240" t="s">
+      <c r="A47" s="237" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="181"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
@@ -6460,9 +6462,9 @@
       <c r="G47" s="21"/>
       <c r="H47" s="38"/>
       <c r="I47" s="20"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="38"/>
@@ -6480,13 +6482,13 @@
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="38"/>
-      <c r="AD47" s="170" t="s">
+      <c r="AD47" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="AE47" s="95" t="s">
+      <c r="AE47" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="AF47" s="95" t="s">
+      <c r="AF47" s="93" t="s">
         <v>71</v>
       </c>
       <c r="AG47" s="21"/>
@@ -6495,84 +6497,84 @@
       <c r="AJ47" s="39"/>
     </row>
     <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="241" t="s">
+      <c r="A48" s="238" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="92" t="s">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="92" t="s">
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="51" t="s">
+      <c r="Q48" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="R48" s="51" t="s">
+      <c r="R48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="S48" s="51" t="s">
+      <c r="S48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="218"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
-      <c r="AJ48" s="53"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="215"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="90"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="52"/>
     </row>
     <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="242" t="s">
+      <c r="A49" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="326" t="s">
+      <c r="B49" s="323" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F49" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="76"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="75"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="76" t="s">
+      <c r="P49" s="75" t="s">
         <v>53</v>
       </c>
       <c r="Q49" s="30"/>
@@ -6582,13 +6584,13 @@
       <c r="U49" s="30"/>
       <c r="V49" s="26"/>
       <c r="W49" s="40"/>
-      <c r="X49" s="76"/>
+      <c r="X49" s="75"/>
       <c r="Y49" s="30"/>
       <c r="Z49" s="30"/>
       <c r="AA49" s="30"/>
       <c r="AB49" s="30"/>
       <c r="AC49" s="26"/>
-      <c r="AD49" s="76"/>
+      <c r="AD49" s="75"/>
       <c r="AE49" s="30"/>
       <c r="AF49" s="30"/>
       <c r="AG49" s="30" t="s">
@@ -6601,7 +6603,7 @@
       <c r="AJ49" s="41"/>
     </row>
     <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="240" t="s">
+      <c r="A50" s="237" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -6616,11 +6618,11 @@
       <c r="E50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="331" t="s">
+      <c r="F50" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="75"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="74"/>
       <c r="I50" s="20" t="s">
         <v>68</v>
       </c>
@@ -6638,13 +6640,13 @@
       </c>
       <c r="N50" s="21"/>
       <c r="O50" s="38"/>
-      <c r="P50" s="263"/>
-      <c r="Q50" s="264"/>
-      <c r="R50" s="264"/>
-      <c r="S50" s="264"/>
-      <c r="T50" s="264"/>
-      <c r="U50" s="264"/>
-      <c r="V50" s="265"/>
+      <c r="P50" s="260"/>
+      <c r="Q50" s="261"/>
+      <c r="R50" s="261"/>
+      <c r="S50" s="261"/>
+      <c r="T50" s="261"/>
+      <c r="U50" s="261"/>
+      <c r="V50" s="262"/>
       <c r="W50" s="24"/>
       <c r="X50" s="21"/>
       <c r="Y50" s="21"/>
@@ -6652,867 +6654,897 @@
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="38"/>
-      <c r="AD50" s="263"/>
-      <c r="AE50" s="264"/>
-      <c r="AF50" s="264"/>
-      <c r="AG50" s="264"/>
-      <c r="AH50" s="264"/>
-      <c r="AI50" s="264"/>
-      <c r="AJ50" s="266"/>
+      <c r="AD50" s="260"/>
+      <c r="AE50" s="261"/>
+      <c r="AF50" s="261"/>
+      <c r="AG50" s="261"/>
+      <c r="AH50" s="261"/>
+      <c r="AI50" s="261"/>
+      <c r="AJ50" s="263"/>
     </row>
     <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="210" t="s">
+      <c r="A51" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="287"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="295" t="s">
+      <c r="B51" s="284"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="295" t="s">
+      <c r="G51" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="296" t="s">
+      <c r="H51" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="270"/>
-      <c r="L51" s="318"/>
-      <c r="M51" s="319"/>
-      <c r="N51" s="319"/>
-      <c r="O51" s="286"/>
-      <c r="P51" s="231"/>
-      <c r="Q51" s="188"/>
-      <c r="R51" s="232"/>
-      <c r="S51" s="188"/>
-      <c r="T51" s="232"/>
-      <c r="U51" s="155"/>
-      <c r="V51" s="155"/>
-      <c r="W51" s="315"/>
-      <c r="X51" s="188"/>
-      <c r="Y51" s="188"/>
-      <c r="Z51" s="188"/>
-      <c r="AA51" s="188"/>
-      <c r="AB51" s="155"/>
-      <c r="AC51" s="155"/>
-      <c r="AD51" s="315"/>
-      <c r="AE51" s="188"/>
-      <c r="AF51" s="188" t="s">
+      <c r="I51" s="49"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="267"/>
+      <c r="L51" s="315"/>
+      <c r="M51" s="316"/>
+      <c r="N51" s="316"/>
+      <c r="O51" s="283"/>
+      <c r="P51" s="228"/>
+      <c r="Q51" s="185"/>
+      <c r="R51" s="229"/>
+      <c r="S51" s="185"/>
+      <c r="T51" s="229"/>
+      <c r="U51" s="152"/>
+      <c r="V51" s="152"/>
+      <c r="W51" s="312"/>
+      <c r="X51" s="185"/>
+      <c r="Y51" s="185"/>
+      <c r="Z51" s="185"/>
+      <c r="AA51" s="185"/>
+      <c r="AB51" s="152"/>
+      <c r="AC51" s="152"/>
+      <c r="AD51" s="312"/>
+      <c r="AE51" s="185"/>
+      <c r="AF51" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AG51" s="188" t="s">
+      <c r="AG51" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AH51" s="188" t="s">
+      <c r="AH51" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AI51" s="155"/>
-      <c r="AJ51" s="236"/>
-      <c r="AK51" s="99"/>
+      <c r="AI51" s="152"/>
+      <c r="AJ51" s="233"/>
+      <c r="AK51" s="97"/>
     </row>
     <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="360" t="s">
+      <c r="A52" s="357" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="287"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="348"/>
-      <c r="G52" s="349"/>
-      <c r="H52" s="350"/>
-      <c r="I52" s="176" t="s">
+      <c r="B52" s="284"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="345"/>
+      <c r="G52" s="346"/>
+      <c r="H52" s="347"/>
+      <c r="I52" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="352" t="s">
+      <c r="J52" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="K52" s="139"/>
-      <c r="L52" s="351"/>
-      <c r="M52" s="352"/>
-      <c r="N52" s="352"/>
-      <c r="O52" s="353"/>
-      <c r="P52" s="354"/>
-      <c r="Q52" s="222"/>
-      <c r="R52" s="355"/>
-      <c r="S52" s="356"/>
-      <c r="T52" s="355"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="357"/>
-      <c r="W52" s="358"/>
-      <c r="X52" s="222"/>
-      <c r="Y52" s="222"/>
-      <c r="Z52" s="222"/>
-      <c r="AA52" s="222"/>
-      <c r="AB52" s="359"/>
-      <c r="AC52" s="114"/>
-      <c r="AD52" s="356"/>
-      <c r="AE52" s="222"/>
-      <c r="AF52" s="222"/>
-      <c r="AG52" s="222"/>
-      <c r="AH52" s="355"/>
-      <c r="AI52" s="155"/>
-      <c r="AJ52" s="236"/>
-      <c r="AK52" s="99"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="348"/>
+      <c r="M52" s="349"/>
+      <c r="N52" s="349"/>
+      <c r="O52" s="350"/>
+      <c r="P52" s="351"/>
+      <c r="Q52" s="219"/>
+      <c r="R52" s="352"/>
+      <c r="S52" s="353"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="152"/>
+      <c r="V52" s="354"/>
+      <c r="W52" s="355"/>
+      <c r="X52" s="219"/>
+      <c r="Y52" s="219"/>
+      <c r="Z52" s="219"/>
+      <c r="AA52" s="219"/>
+      <c r="AB52" s="356"/>
+      <c r="AC52" s="112"/>
+      <c r="AD52" s="353"/>
+      <c r="AE52" s="219"/>
+      <c r="AF52" s="219"/>
+      <c r="AG52" s="219"/>
+      <c r="AH52" s="352"/>
+      <c r="AI52" s="152"/>
+      <c r="AJ52" s="233"/>
+      <c r="AK52" s="97"/>
     </row>
     <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="233" t="s">
+      <c r="A53" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="245" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="134" t="s">
+      <c r="G53" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="246"/>
-      <c r="I53" s="128" t="s">
+      <c r="H53" s="243"/>
+      <c r="I53" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="234" t="s">
+      <c r="J53" s="231" t="s">
         <v>66</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L53" s="235" t="s">
+      <c r="L53" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="M53" s="234" t="s">
+      <c r="M53" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="N53" s="234" t="s">
+      <c r="N53" s="231" t="s">
         <v>66</v>
       </c>
       <c r="O53" s="22"/>
-      <c r="P53" s="247"/>
+      <c r="P53" s="244"/>
       <c r="Q53" s="45"/>
       <c r="R53" s="46"/>
-      <c r="S53" s="164" t="s">
+      <c r="S53" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="T53" s="107" t="s">
+      <c r="T53" s="105" t="s">
         <v>66</v>
       </c>
       <c r="U53" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V53" s="55" t="s">
+      <c r="V53" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="W53" s="248"/>
+      <c r="W53" s="245"/>
       <c r="X53" s="45"/>
       <c r="Y53" s="45"/>
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="114"/>
-      <c r="AD53" s="164"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="112"/>
+      <c r="AD53" s="161"/>
       <c r="AE53" s="45"/>
       <c r="AF53" s="45"/>
       <c r="AG53" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AH53" s="107" t="s">
+      <c r="AH53" s="105" t="s">
         <v>66</v>
       </c>
       <c r="AI53" s="46"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="364" t="s">
+      <c r="AJ53" s="79"/>
+      <c r="AK53" s="361" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="233" t="s">
+      <c r="A54" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="234"/>
-      <c r="K54" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="L54" s="351" t="s">
-        <v>71</v>
-      </c>
-      <c r="M54" s="352" t="s">
-        <v>71</v>
-      </c>
-      <c r="N54" s="352" t="s">
-        <v>71</v>
-      </c>
-      <c r="O54" s="353" t="s">
-        <v>71</v>
-      </c>
-      <c r="P54" s="247"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="242"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="243"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="231"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="348"/>
+      <c r="M54" s="349"/>
+      <c r="N54" s="349"/>
+      <c r="O54" s="350"/>
+      <c r="P54" s="244"/>
       <c r="Q54" s="45"/>
       <c r="R54" s="46"/>
-      <c r="S54" s="164"/>
-      <c r="T54" s="107"/>
+      <c r="S54" s="161"/>
+      <c r="T54" s="105"/>
       <c r="U54" s="46"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="248"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="245"/>
       <c r="X54" s="45"/>
       <c r="Y54" s="45"/>
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="114"/>
-      <c r="AD54" s="164"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="112"/>
+      <c r="AD54" s="161"/>
       <c r="AE54" s="45"/>
       <c r="AF54" s="45"/>
       <c r="AG54" s="45"/>
-      <c r="AH54" s="107"/>
+      <c r="AH54" s="105"/>
       <c r="AI54" s="46"/>
-      <c r="AJ54" s="81"/>
-      <c r="AK54" s="365" t="s">
+      <c r="AJ54" s="79"/>
+      <c r="AK54" s="362" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="389" t="s">
+      <c r="B55" s="386" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="390" t="s">
+      <c r="C55" s="387" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="390" t="s">
+      <c r="D55" s="387" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="390" t="s">
+      <c r="E55" s="387" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="91"/>
-      <c r="G55" s="391"/>
-      <c r="H55" s="392"/>
-      <c r="I55" s="399" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="400" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="98"/>
-      <c r="L55" s="401"/>
-      <c r="M55" s="400"/>
-      <c r="N55" s="400"/>
-      <c r="O55" s="337"/>
-      <c r="P55" s="397" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q55" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="R55" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="S55" s="359" t="s">
-        <v>71</v>
-      </c>
+      <c r="F55" s="89"/>
+      <c r="G55" s="388"/>
+      <c r="H55" s="389"/>
+      <c r="I55" s="396"/>
+      <c r="J55" s="397"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="398"/>
+      <c r="M55" s="397"/>
+      <c r="N55" s="397"/>
+      <c r="O55" s="334"/>
+      <c r="P55" s="394"/>
+      <c r="Q55" s="152"/>
+      <c r="R55" s="152"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="46"/>
       <c r="U55" s="46"/>
       <c r="V55" s="47"/>
-      <c r="W55" s="393"/>
-      <c r="X55" s="394"/>
-      <c r="Y55" s="394"/>
-      <c r="Z55" s="394"/>
-      <c r="AA55" s="394"/>
-      <c r="AB55" s="421"/>
-      <c r="AC55" s="422"/>
-      <c r="AD55" s="359" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE55" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF55" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG55" s="394" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH55" s="55"/>
+      <c r="W55" s="390"/>
+      <c r="X55" s="391"/>
+      <c r="Y55" s="391"/>
+      <c r="Z55" s="391"/>
+      <c r="AA55" s="391"/>
+      <c r="AB55" s="418"/>
+      <c r="AC55" s="419"/>
+      <c r="AD55" s="356"/>
+      <c r="AE55" s="152"/>
+      <c r="AF55" s="152"/>
+      <c r="AG55" s="391"/>
+      <c r="AH55" s="54"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="41"/>
-      <c r="AK55" s="365" t="s">
+      <c r="AK55" s="362" t="s">
         <v>102</v>
       </c>
-      <c r="AL55" s="99"/>
+      <c r="AL55" s="97"/>
     </row>
     <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="249" t="s">
+      <c r="A56" s="246" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="386"/>
+      <c r="C56" s="387"/>
+      <c r="D56" s="387"/>
+      <c r="E56" s="387"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="388"/>
+      <c r="H56" s="389"/>
+      <c r="I56" s="396"/>
+      <c r="J56" s="397"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="398"/>
+      <c r="M56" s="397"/>
+      <c r="N56" s="397"/>
+      <c r="O56" s="444"/>
+      <c r="P56" s="394"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="356"/>
+      <c r="S56" s="356"/>
+      <c r="T56" s="356"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="390"/>
+      <c r="X56" s="391"/>
+      <c r="Y56" s="391"/>
+      <c r="Z56" s="391"/>
+      <c r="AA56" s="391"/>
+      <c r="AB56" s="418"/>
+      <c r="AC56" s="419"/>
+      <c r="AD56" s="356" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE56" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF56" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG56" s="391"/>
+      <c r="AH56" s="54"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="445"/>
+      <c r="AK56" s="362"/>
+      <c r="AL56" s="97"/>
+    </row>
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="237" t="s">
+      <c r="B57" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C57" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="109" t="s">
+      <c r="D57" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="E57" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="395"/>
-      <c r="H56" s="396"/>
-      <c r="I56" s="399"/>
-      <c r="J56" s="400"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="359"/>
-      <c r="S56" s="359"/>
-      <c r="T56" s="359" t="s">
+      <c r="F57" s="89"/>
+      <c r="G57" s="392"/>
+      <c r="H57" s="393"/>
+      <c r="I57" s="396" t="s">
         <v>71</v>
       </c>
-      <c r="U56" s="110" t="s">
+      <c r="J57" s="397" t="s">
         <v>71</v>
       </c>
-      <c r="V56" s="110" t="s">
+      <c r="K57" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="W56" s="397"/>
-      <c r="X56" s="155"/>
-      <c r="Y56" s="155"/>
-      <c r="Z56" s="155"/>
-      <c r="AA56" s="155"/>
-      <c r="AB56" s="359"/>
-      <c r="AC56" s="398"/>
-      <c r="AD56" s="359" t="s">
+      <c r="L57" s="398" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" s="397" t="s">
+        <v>71</v>
+      </c>
+      <c r="N57" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="444"/>
+      <c r="P57" s="394" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q57" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="R57" s="356" t="s">
+        <v>71</v>
+      </c>
+      <c r="S57" s="356" t="s">
+        <v>71</v>
+      </c>
+      <c r="T57" s="356" t="s">
+        <v>71</v>
+      </c>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="394"/>
+      <c r="X57" s="152"/>
+      <c r="Y57" s="152"/>
+      <c r="Z57" s="152"/>
+      <c r="AA57" s="152"/>
+      <c r="AB57" s="356"/>
+      <c r="AC57" s="395"/>
+      <c r="AD57" s="356" t="s">
         <v>67</v>
       </c>
-      <c r="AE56" s="155" t="s">
+      <c r="AE57" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="AF56" s="155" t="s">
+      <c r="AF57" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="AG56" s="155" t="s">
+      <c r="AG57" s="152"/>
+      <c r="AH57" s="54"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="56"/>
+      <c r="AK57" s="363" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="46"/>
-      <c r="AJ56" s="57"/>
-      <c r="AK56" s="366" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="261" t="s">
+      <c r="C58" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="257" t="s">
+      <c r="D58" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="257" t="s">
+      <c r="E58" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="257" t="s">
+      <c r="F58" s="89"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="366"/>
+      <c r="I58" s="367" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="368" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="367" t="s">
+        <v>71</v>
+      </c>
+      <c r="M58" s="369" t="s">
+        <v>71</v>
+      </c>
+      <c r="N58" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="O58" s="370" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" s="371" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q58" s="372" t="s">
+        <v>71</v>
+      </c>
+      <c r="R58" s="373" t="s">
+        <v>71</v>
+      </c>
+      <c r="S58" s="373" t="s">
+        <v>71</v>
+      </c>
+      <c r="T58" s="373" t="s">
+        <v>71</v>
+      </c>
+      <c r="U58" s="368" t="s">
+        <v>71</v>
+      </c>
+      <c r="V58" s="374" t="s">
+        <v>71</v>
+      </c>
+      <c r="W58" s="53"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="372"/>
+      <c r="AA58" s="373"/>
+      <c r="AB58" s="373"/>
+      <c r="AC58" s="375"/>
+      <c r="AD58" s="373" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="368"/>
-      <c r="H57" s="369"/>
-      <c r="I57" s="370" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="371" t="s">
-        <v>71</v>
-      </c>
-      <c r="L57" s="370" t="s">
-        <v>71</v>
-      </c>
-      <c r="M57" s="372" t="s">
-        <v>71</v>
-      </c>
-      <c r="N57" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="O57" s="373" t="s">
-        <v>71</v>
-      </c>
-      <c r="P57" s="374" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q57" s="375" t="s">
-        <v>71</v>
-      </c>
-      <c r="R57" s="376" t="s">
-        <v>71</v>
-      </c>
-      <c r="S57" s="376" t="s">
-        <v>71</v>
-      </c>
-      <c r="T57" s="376" t="s">
-        <v>71</v>
-      </c>
-      <c r="U57" s="371" t="s">
-        <v>71</v>
-      </c>
-      <c r="V57" s="377" t="s">
-        <v>71</v>
-      </c>
-      <c r="W57" s="54"/>
-      <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="375"/>
-      <c r="AA57" s="376"/>
-      <c r="AB57" s="376"/>
-      <c r="AC57" s="378"/>
-      <c r="AD57" s="376" t="s">
+      <c r="AE58" s="373" t="s">
         <v>67</v>
       </c>
-      <c r="AE57" s="376" t="s">
+      <c r="AF58" s="372" t="s">
         <v>67</v>
       </c>
-      <c r="AF57" s="375" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG57" s="375" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="46"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="367" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="249" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="446" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="447"/>
-      <c r="D58" s="448"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="T58" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="U58" s="46"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="66"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="114"/>
-      <c r="AD58" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE58" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF58" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG58" s="46"/>
+      <c r="AG58" s="372"/>
       <c r="AH58" s="54"/>
       <c r="AI58" s="46"/>
-      <c r="AJ58" s="81"/>
-      <c r="AK58" s="99"/>
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="364" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="59" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="163" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="163" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="215" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="216" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="273" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="274" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="244" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L59" s="54"/>
+      <c r="A59" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="454" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="455"/>
+      <c r="D59" s="456"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
       <c r="M59" s="46"/>
       <c r="N59" s="46"/>
       <c r="O59" s="47"/>
-      <c r="P59" s="54"/>
+      <c r="P59" s="55"/>
       <c r="Q59" s="46"/>
-      <c r="R59" s="54"/>
+      <c r="R59" s="53"/>
       <c r="S59" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="T59" s="54" t="s">
+      <c r="T59" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="U59" s="54"/>
+      <c r="U59" s="46"/>
       <c r="V59" s="47"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="114"/>
-      <c r="AD59" s="164" t="s">
+      <c r="W59" s="65"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="112"/>
+      <c r="AD59" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AE59" s="164" t="s">
+      <c r="AE59" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AF59" s="164" t="s">
+      <c r="AF59" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AG59" s="164" t="s">
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="79"/>
+      <c r="AK59" s="97"/>
+    </row>
+    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="100"/>
+      <c r="C60" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="212" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="213" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="270" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="271" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="46" t="s">
+      <c r="J60" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ59" s="108"/>
-      <c r="AK59" s="99"/>
-    </row>
-    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="239" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="244"/>
-      <c r="J60" s="182"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="54"/>
+      <c r="K60" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="53"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
       <c r="O60" s="47"/>
-      <c r="P60" s="54"/>
+      <c r="P60" s="53"/>
       <c r="Q60" s="46"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="T60" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="U60" s="53"/>
       <c r="V60" s="47"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="114"/>
-      <c r="AD60" s="164"/>
-      <c r="AE60" s="164"/>
-      <c r="AF60" s="164"/>
-      <c r="AG60" s="164"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="46"/>
-      <c r="AJ60" s="108"/>
-      <c r="AK60" s="99"/>
-    </row>
-    <row r="61" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="W60" s="65"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="112"/>
+      <c r="AD60" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE60" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF60" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG60" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH60" s="53"/>
+      <c r="AI60" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ60" s="106"/>
+      <c r="AK60" s="97"/>
+    </row>
+    <row r="61" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="236" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="100"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="241"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="66"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="112"/>
+      <c r="AD61" s="161"/>
+      <c r="AE61" s="161"/>
+      <c r="AF61" s="161"/>
+      <c r="AG61" s="161"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="106"/>
+      <c r="AK61" s="97"/>
+    </row>
+    <row r="62" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="272"/>
-      <c r="C61" s="410" t="s">
+      <c r="B62" s="269"/>
+      <c r="C62" s="407" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="410" t="s">
+      <c r="D62" s="407" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="411" t="s">
+      <c r="E62" s="408" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="412" t="s">
+      <c r="F62" s="409" t="s">
         <v>84</v>
       </c>
-      <c r="G61" s="413" t="s">
+      <c r="G62" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="332"/>
-      <c r="I61" s="414" t="s">
+      <c r="H62" s="329"/>
+      <c r="I62" s="411" t="s">
         <v>84</v>
       </c>
-      <c r="J61" s="415" t="s">
+      <c r="J62" s="412" t="s">
         <v>84</v>
       </c>
-      <c r="K61" s="415" t="s">
+      <c r="K62" s="412" t="s">
         <v>84</v>
       </c>
-      <c r="L61" s="416" t="s">
+      <c r="L62" s="413" t="s">
         <v>84</v>
       </c>
-      <c r="M61" s="411" t="s">
+      <c r="M62" s="408" t="s">
         <v>84</v>
       </c>
-      <c r="N61" s="416" t="s">
+      <c r="N62" s="413" t="s">
         <v>84</v>
       </c>
-      <c r="O61" s="417" t="s">
+      <c r="O62" s="414" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="219"/>
-      <c r="Q61" s="219"/>
-      <c r="R61" s="219"/>
-      <c r="S61" s="219"/>
-      <c r="T61" s="219"/>
-      <c r="U61" s="433"/>
-      <c r="V61" s="178"/>
-      <c r="W61" s="219"/>
-      <c r="X61" s="219"/>
-      <c r="Y61" s="219"/>
-      <c r="Z61" s="219"/>
-      <c r="AA61" s="219"/>
-      <c r="AB61" s="219"/>
-      <c r="AC61" s="178"/>
-      <c r="AD61" s="434"/>
-      <c r="AE61" s="434"/>
-      <c r="AF61" s="434"/>
-      <c r="AG61" s="434"/>
-      <c r="AH61" s="394"/>
-      <c r="AI61" s="394" t="s">
+      <c r="P62" s="216"/>
+      <c r="Q62" s="216"/>
+      <c r="R62" s="216"/>
+      <c r="S62" s="216"/>
+      <c r="T62" s="216"/>
+      <c r="U62" s="430"/>
+      <c r="V62" s="175"/>
+      <c r="W62" s="216"/>
+      <c r="X62" s="216"/>
+      <c r="Y62" s="216"/>
+      <c r="Z62" s="216"/>
+      <c r="AA62" s="216"/>
+      <c r="AB62" s="216"/>
+      <c r="AC62" s="175"/>
+      <c r="AD62" s="431"/>
+      <c r="AE62" s="431"/>
+      <c r="AF62" s="431"/>
+      <c r="AG62" s="431"/>
+      <c r="AH62" s="391"/>
+      <c r="AI62" s="391" t="s">
         <v>108</v>
       </c>
-      <c r="AJ61" s="438"/>
-      <c r="AK61" s="100"/>
-    </row>
-    <row r="62" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="361" t="s">
+      <c r="AJ62" s="435"/>
+      <c r="AK62" s="98"/>
+    </row>
+    <row r="63" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="358" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="197"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="195"/>
-      <c r="H62" s="196"/>
-      <c r="I62" s="379" t="s">
+      <c r="B63" s="194"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="192"/>
+      <c r="H63" s="193"/>
+      <c r="I63" s="376" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="380" t="s">
+      <c r="J63" s="377" t="s">
         <v>71</v>
       </c>
-      <c r="K62" s="381" t="s">
+      <c r="K63" s="378" t="s">
         <v>71</v>
       </c>
-      <c r="L62" s="382" t="s">
+      <c r="L63" s="379" t="s">
         <v>71</v>
       </c>
-      <c r="M62" s="383" t="s">
+      <c r="M63" s="380" t="s">
         <v>71</v>
       </c>
-      <c r="N62" s="381" t="s">
+      <c r="N63" s="378" t="s">
         <v>71</v>
       </c>
-      <c r="O62" s="384" t="s">
+      <c r="O63" s="381" t="s">
         <v>71</v>
       </c>
-      <c r="P62" s="379" t="s">
+      <c r="P63" s="376" t="s">
         <v>71</v>
       </c>
-      <c r="Q62" s="385" t="s">
+      <c r="Q63" s="382" t="s">
         <v>71</v>
       </c>
-      <c r="R62" s="386" t="s">
+      <c r="R63" s="383" t="s">
         <v>71</v>
       </c>
-      <c r="S62" s="387" t="s">
+      <c r="S63" s="384" t="s">
         <v>71</v>
       </c>
-      <c r="T62" s="379" t="s">
+      <c r="T63" s="376" t="s">
         <v>71</v>
       </c>
-      <c r="U62" s="379" t="s">
+      <c r="U63" s="376" t="s">
         <v>71</v>
       </c>
-      <c r="V62" s="388" t="s">
+      <c r="V63" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="W62" s="362"/>
-      <c r="X62" s="363"/>
-      <c r="Y62" s="363"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="59"/>
-      <c r="AB62" s="61"/>
-      <c r="AC62" s="198"/>
-      <c r="AD62" s="59"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="59"/>
-      <c r="AH62" s="194"/>
-      <c r="AI62" s="58"/>
-      <c r="AJ62" s="132"/>
-      <c r="AK62" s="100"/>
-    </row>
-    <row r="63" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
+      <c r="W63" s="359"/>
+      <c r="X63" s="360"/>
+      <c r="Y63" s="360"/>
       <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
+      <c r="AA63" s="58"/>
       <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
-      <c r="AJ63" s="60"/>
-    </row>
-    <row r="64" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+      <c r="AC63" s="195"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="58"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="191"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="130"/>
+      <c r="AK63" s="98"/>
+    </row>
+    <row r="64" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="59"/>
+      <c r="AE64" s="59"/>
+      <c r="AF64" s="59"/>
+      <c r="AG64" s="59"/>
+      <c r="AH64" s="59"/>
+      <c r="AI64" s="59"/>
+      <c r="AJ64" s="59"/>
+    </row>
+    <row r="65" spans="1:36" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="449" t="s">
+      <c r="B65" s="457" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="450"/>
-      <c r="D64" s="450"/>
-      <c r="E64" s="450"/>
-      <c r="F64" s="450"/>
-      <c r="G64" s="450"/>
-      <c r="H64" s="452"/>
-      <c r="I64" s="449" t="s">
+      <c r="C65" s="458"/>
+      <c r="D65" s="458"/>
+      <c r="E65" s="458"/>
+      <c r="F65" s="458"/>
+      <c r="G65" s="458"/>
+      <c r="H65" s="460"/>
+      <c r="I65" s="457" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="450"/>
-      <c r="K64" s="450"/>
-      <c r="L64" s="450"/>
-      <c r="M64" s="450"/>
-      <c r="N64" s="450"/>
-      <c r="O64" s="452"/>
-      <c r="P64" s="449" t="s">
+      <c r="J65" s="458"/>
+      <c r="K65" s="458"/>
+      <c r="L65" s="458"/>
+      <c r="M65" s="458"/>
+      <c r="N65" s="458"/>
+      <c r="O65" s="460"/>
+      <c r="P65" s="457" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" s="450"/>
-      <c r="R64" s="450"/>
-      <c r="S64" s="450"/>
-      <c r="T64" s="450"/>
-      <c r="U64" s="450"/>
-      <c r="V64" s="452"/>
-      <c r="W64" s="449" t="s">
+      <c r="Q65" s="458"/>
+      <c r="R65" s="458"/>
+      <c r="S65" s="458"/>
+      <c r="T65" s="458"/>
+      <c r="U65" s="458"/>
+      <c r="V65" s="460"/>
+      <c r="W65" s="457" t="s">
         <v>17</v>
       </c>
-      <c r="X64" s="450"/>
-      <c r="Y64" s="450"/>
-      <c r="Z64" s="450"/>
-      <c r="AA64" s="450"/>
-      <c r="AB64" s="450"/>
-      <c r="AC64" s="452"/>
-      <c r="AD64" s="449" t="s">
+      <c r="X65" s="458"/>
+      <c r="Y65" s="458"/>
+      <c r="Z65" s="458"/>
+      <c r="AA65" s="458"/>
+      <c r="AB65" s="458"/>
+      <c r="AC65" s="460"/>
+      <c r="AD65" s="457" t="s">
         <v>36</v>
       </c>
-      <c r="AE64" s="450"/>
-      <c r="AF64" s="450"/>
-      <c r="AG64" s="450"/>
-      <c r="AH64" s="450"/>
-      <c r="AI64" s="450"/>
-      <c r="AJ64" s="451"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O68" s="104"/>
+      <c r="AE65" s="458"/>
+      <c r="AF65" s="458"/>
+      <c r="AG65" s="458"/>
+      <c r="AH65" s="458"/>
+      <c r="AI65" s="458"/>
+      <c r="AJ65" s="459"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="O69" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="AD65:AJ65"/>
+    <mergeCell ref="W65:AC65"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:O65"/>
+    <mergeCell ref="P65:V65"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="AD64:AJ64"/>
-    <mergeCell ref="W64:AC64"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I64:O64"/>
-    <mergeCell ref="P64:V64"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7533,11 +7565,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="322"/>
-    <col min="2" max="2" width="16.42578125" style="322" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="322" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="322" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="322"/>
+    <col min="1" max="1" width="8.85546875" style="319"/>
+    <col min="2" max="2" width="16.42578125" style="319" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="319" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="319" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="319"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -7548,247 +7580,247 @@
       <c r="D1" s="461"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="146"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="323"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="320"/>
+      <c r="C3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="146"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="324"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="321"/>
+      <c r="C5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="223"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="220"/>
+      <c r="C7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="82">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="147"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
-      <c r="C13" s="83" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="82" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="149"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="168"/>
-      <c r="C15" s="83" t="s">
+      <c r="B15" s="165"/>
+      <c r="C15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="82" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="300"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="150"/>
-      <c r="F16" s="325"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="148"/>
+      <c r="F16" s="322"/>
     </row>
     <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="151"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="149"/>
+      <c r="C17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="82" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="146"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="224"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="221"/>
+      <c r="C19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="146"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
     </row>
     <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="167"/>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="164"/>
+      <c r="C23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="82" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="146"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="83" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="88"/>
-      <c r="C27" s="83" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="89"/>
-      <c r="C29" s="83" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="152"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="84" t="s">
+      <c r="B31" s="150"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="82" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="84" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="82" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="153"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="84" t="s">
+      <c r="B36" s="151"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
